--- a/Code/Results/Cases/Case_3_100/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_100/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.30478297019224</v>
+        <v>13.15646255937282</v>
       </c>
       <c r="C2">
-        <v>13.83022772875402</v>
+        <v>8.218318456455362</v>
       </c>
       <c r="D2">
-        <v>10.15527171349982</v>
+        <v>11.87018230616401</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.48456066868077</v>
+        <v>27.59493973365432</v>
       </c>
       <c r="G2">
-        <v>21.48092830867161</v>
+        <v>24.36577258056807</v>
       </c>
       <c r="H2">
-        <v>7.916426770958475</v>
+        <v>13.05051426075346</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.309551757190373</v>
+        <v>11.26304089104034</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.62718068564754</v>
+        <v>16.19643918953367</v>
       </c>
       <c r="O2">
-        <v>13.11693479795647</v>
+        <v>19.29739511861112</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.97550494924429</v>
+        <v>12.57613168952097</v>
       </c>
       <c r="C3">
-        <v>13.02252728221014</v>
+        <v>7.775668131902176</v>
       </c>
       <c r="D3">
-        <v>9.666647057423381</v>
+        <v>11.78913205654106</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.75502972207421</v>
+        <v>27.56867883765096</v>
       </c>
       <c r="G3">
-        <v>20.59514496921939</v>
+        <v>24.30826269225195</v>
       </c>
       <c r="H3">
-        <v>7.900920113342312</v>
+        <v>13.09105740239756</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.023625026675619</v>
+        <v>11.24253872704824</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.67570415068193</v>
+        <v>16.22534573149224</v>
       </c>
       <c r="O3">
-        <v>12.90261621951384</v>
+        <v>19.34284723331246</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.11070535555781</v>
+        <v>12.20659582078565</v>
       </c>
       <c r="C4">
-        <v>12.49975445282827</v>
+        <v>7.48933926628902</v>
       </c>
       <c r="D4">
-        <v>9.358663593393128</v>
+        <v>11.74138012548377</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.31573472572356</v>
+        <v>27.56073506032266</v>
       </c>
       <c r="G4">
-        <v>20.0613966774935</v>
+        <v>24.28307036977235</v>
       </c>
       <c r="H4">
-        <v>7.898089218904109</v>
+        <v>13.11848426140804</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.848395564656224</v>
+        <v>11.23223713828428</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.70933699993626</v>
+        <v>16.2448598579482</v>
       </c>
       <c r="O4">
-        <v>12.78393068655181</v>
+        <v>19.37598951534953</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.74602528185544</v>
+        <v>12.05288528430605</v>
       </c>
       <c r="C5">
-        <v>12.28004131671908</v>
+        <v>7.369070245322231</v>
       </c>
       <c r="D5">
-        <v>9.231319499969848</v>
+        <v>11.72244382259173</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.13912867886041</v>
+        <v>27.55955695186242</v>
       </c>
       <c r="G5">
-        <v>19.84676865532323</v>
+        <v>24.27535329046387</v>
       </c>
       <c r="H5">
-        <v>7.898556943729754</v>
+        <v>13.13029694431579</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.777167714174185</v>
+        <v>11.22861709590213</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.72398542146685</v>
+        <v>16.25325659979382</v>
       </c>
       <c r="O5">
-        <v>12.73876616759428</v>
+        <v>19.39080712679101</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.68472842128385</v>
+        <v>12.02717962685198</v>
       </c>
       <c r="C6">
-        <v>12.24315721709841</v>
+        <v>7.348885269111176</v>
       </c>
       <c r="D6">
-        <v>9.210068406926993</v>
+        <v>11.7193315241065</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.10995599287358</v>
+        <v>27.55948571040833</v>
       </c>
       <c r="G6">
-        <v>19.81131368514521</v>
+        <v>24.27422588529091</v>
       </c>
       <c r="H6">
-        <v>7.898730730388759</v>
+        <v>13.13229681575102</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.765354175021316</v>
+        <v>11.22805097207793</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.72647408124041</v>
+        <v>16.25467774289493</v>
       </c>
       <c r="O6">
-        <v>12.73145839366641</v>
+        <v>19.39334667705509</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.10583687333318</v>
+        <v>12.20453518122937</v>
       </c>
       <c r="C7">
-        <v>12.49681825853223</v>
+        <v>7.487731701473102</v>
       </c>
       <c r="D7">
-        <v>9.356953392870501</v>
+        <v>11.74112260480389</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.31334287785234</v>
+        <v>27.56071083374185</v>
       </c>
       <c r="G7">
-        <v>20.05849002317636</v>
+        <v>24.28295597066826</v>
       </c>
       <c r="H7">
-        <v>7.898089043416475</v>
+        <v>13.11864099751185</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.847434101572961</v>
+        <v>11.23218597359862</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.70953076552139</v>
+        <v>16.24497129840977</v>
       </c>
       <c r="O7">
-        <v>12.78330869070198</v>
+        <v>19.37618404527669</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.85651125404364</v>
+        <v>12.95921793963817</v>
       </c>
       <c r="C8">
-        <v>13.55733943549021</v>
+        <v>8.068747100041543</v>
       </c>
       <c r="D8">
-        <v>9.988538155831829</v>
+        <v>11.84182863379262</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.2313654671234</v>
+        <v>27.58418886042841</v>
       </c>
       <c r="G8">
-        <v>21.17360259868666</v>
+        <v>24.3438468305465</v>
       </c>
       <c r="H8">
-        <v>7.909655191700499</v>
+        <v>13.06396719032492</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.210951233774416</v>
+        <v>11.25549899265391</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.64310075446608</v>
+        <v>16.20604015075945</v>
       </c>
       <c r="O8">
-        <v>13.04033589313</v>
+        <v>19.31197805957921</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.90602633718484</v>
+        <v>14.32687382034459</v>
       </c>
       <c r="C9">
-        <v>15.42194922160478</v>
+        <v>9.090409929907091</v>
       </c>
       <c r="D9">
-        <v>11.15791734098415</v>
+        <v>12.05451308438169</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.09026221640818</v>
+        <v>27.69496757992861</v>
       </c>
       <c r="G9">
-        <v>23.42719568950282</v>
+        <v>24.543164268997</v>
       </c>
       <c r="H9">
-        <v>7.988078990928924</v>
+        <v>12.97689462835963</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.922596946232746</v>
+        <v>11.31921346225724</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.54437149028209</v>
+        <v>16.14367551667228</v>
       </c>
       <c r="O9">
-        <v>13.64816316581144</v>
+        <v>19.22778377404654</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.91610476639703</v>
+        <v>15.25492186642232</v>
       </c>
       <c r="C10">
-        <v>16.65911707766023</v>
+        <v>9.766897001037123</v>
       </c>
       <c r="D10">
-        <v>11.96858977093181</v>
+        <v>12.21895363909725</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.47974193562463</v>
+        <v>27.81547307661316</v>
       </c>
       <c r="G10">
-        <v>25.107822769726</v>
+        <v>24.73755007306914</v>
       </c>
       <c r="H10">
-        <v>8.083197720804289</v>
+        <v>12.92525872015345</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.440233385292277</v>
+        <v>11.37677051401423</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.49263890147266</v>
+        <v>16.10634071052289</v>
       </c>
       <c r="O10">
-        <v>14.15917237130911</v>
+        <v>19.19157706251802</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.78133515910819</v>
+        <v>15.65909983378046</v>
       </c>
       <c r="C11">
-        <v>17.19302133222704</v>
+        <v>10.05822429083826</v>
       </c>
       <c r="D11">
-        <v>12.32594842364579</v>
+        <v>12.29529529281181</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.11491142727722</v>
+        <v>27.87867298806671</v>
       </c>
       <c r="G11">
-        <v>25.87517499220208</v>
+        <v>24.83614971109859</v>
       </c>
       <c r="H11">
-        <v>8.135326963664053</v>
+        <v>12.90445833300157</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.6738451812619</v>
+        <v>11.40523033810916</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.47399139281219</v>
+        <v>16.09119048817315</v>
       </c>
       <c r="O11">
-        <v>14.40570969536075</v>
+        <v>19.18071350832534</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.10197628341762</v>
+        <v>15.80947440909922</v>
       </c>
       <c r="C12">
-        <v>17.39104711324993</v>
+        <v>10.16616343234153</v>
       </c>
       <c r="D12">
-        <v>12.45957617130482</v>
+        <v>12.32440378643105</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.35573689562295</v>
+        <v>27.90379756597259</v>
       </c>
       <c r="G12">
-        <v>26.16599241146288</v>
+        <v>24.87492370560467</v>
       </c>
       <c r="H12">
-        <v>8.156396458713628</v>
+        <v>12.89696932785143</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.76199176707186</v>
+        <v>11.41632910195417</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.46766534829525</v>
+        <v>16.08571649937759</v>
       </c>
       <c r="O12">
-        <v>14.50108827896889</v>
+        <v>19.17740833499078</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.03323082807606</v>
+        <v>15.77720899125854</v>
       </c>
       <c r="C13">
-        <v>17.34858326616932</v>
+        <v>10.14302293606551</v>
       </c>
       <c r="D13">
-        <v>12.43087317508072</v>
+        <v>12.3181262198357</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.30385943489256</v>
+        <v>27.8983337461301</v>
       </c>
       <c r="G13">
-        <v>26.10335134113987</v>
+        <v>24.86650960126495</v>
       </c>
       <c r="H13">
-        <v>8.151798787096402</v>
+        <v>12.89856496339795</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.743022595369395</v>
+        <v>11.4139245756291</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.46899452924983</v>
+        <v>16.08688373013119</v>
       </c>
       <c r="O13">
-        <v>14.48045703234125</v>
+        <v>19.17808416812284</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.80785444823048</v>
+        <v>15.67152539828467</v>
       </c>
       <c r="C14">
-        <v>17.20939620674814</v>
+        <v>10.06715230975663</v>
       </c>
       <c r="D14">
-        <v>12.3369763061073</v>
+        <v>12.29768619021367</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.13471898018434</v>
+        <v>27.88071619155774</v>
       </c>
       <c r="G14">
-        <v>25.89909676800542</v>
+        <v>24.83931104536854</v>
       </c>
       <c r="H14">
-        <v>8.137033413447238</v>
+        <v>12.90383443359488</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.681103653026803</v>
+        <v>11.40613702836556</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.47345601362895</v>
+        <v>16.09073487089158</v>
       </c>
       <c r="O14">
-        <v>14.41351609174707</v>
+        <v>19.18042537231067</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.66889498057325</v>
+        <v>15.60643982931248</v>
       </c>
       <c r="C15">
-        <v>17.12359958246802</v>
+        <v>10.02036887426397</v>
       </c>
       <c r="D15">
-        <v>12.27923953604653</v>
+        <v>12.28519143054785</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.0311509375792</v>
+        <v>27.87007976225328</v>
       </c>
       <c r="G15">
-        <v>25.77401161911323</v>
+        <v>24.82283737262115</v>
       </c>
       <c r="H15">
-        <v>8.128163913806445</v>
+        <v>12.90711264757639</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.643133937739462</v>
+        <v>11.40140864021926</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.47628556999865</v>
+        <v>16.09312804779448</v>
       </c>
       <c r="O15">
-        <v>14.37277576616798</v>
+        <v>19.18196479377059</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.85857624854627</v>
+        <v>15.2281376369891</v>
       </c>
       <c r="C16">
-        <v>16.62364383501197</v>
+        <v>9.747525995197996</v>
       </c>
       <c r="D16">
-        <v>11.94500075115641</v>
+        <v>12.21399363243988</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.43828134489604</v>
+        <v>27.81151039284267</v>
       </c>
       <c r="G16">
-        <v>25.05771600451635</v>
+        <v>24.73130887885678</v>
       </c>
       <c r="H16">
-        <v>8.079974001206516</v>
+        <v>12.92667226881926</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.424924358540064</v>
+        <v>11.37495593098013</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.49395863916778</v>
+        <v>16.10736765867073</v>
       </c>
       <c r="O16">
-        <v>14.14334356578873</v>
+        <v>19.19240006080913</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.34892621441901</v>
+        <v>14.9913827209869</v>
       </c>
       <c r="C17">
-        <v>16.30953665109818</v>
+        <v>9.575926431141212</v>
       </c>
       <c r="D17">
-        <v>11.73698745382979</v>
+        <v>12.17069455966659</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.07525499913601</v>
+        <v>27.77771794262922</v>
       </c>
       <c r="G17">
-        <v>24.61888258911296</v>
+        <v>24.67774690111744</v>
       </c>
       <c r="H17">
-        <v>8.052720158833813</v>
+        <v>12.93936089751325</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.29054417000609</v>
+        <v>11.35930724468928</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.50607466679357</v>
+        <v>16.11657239908932</v>
       </c>
       <c r="O17">
-        <v>14.00619793664698</v>
+        <v>19.20023968450541</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.05115717113504</v>
+        <v>14.85351812847463</v>
       </c>
       <c r="C18">
-        <v>16.1261505729039</v>
+        <v>9.475683148515374</v>
       </c>
       <c r="D18">
-        <v>11.61627091352652</v>
+        <v>12.14593603582444</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.86674938077488</v>
+        <v>27.75907121735878</v>
       </c>
       <c r="G18">
-        <v>24.36675074405368</v>
+        <v>24.64789876021421</v>
       </c>
       <c r="H18">
-        <v>8.037875171054312</v>
+        <v>12.9469121121292</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.21307909163516</v>
+        <v>11.35052121372242</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.5135013042471</v>
+        <v>16.12203934220627</v>
       </c>
       <c r="O18">
-        <v>13.92864088563732</v>
+        <v>19.20527648482175</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.94954019137317</v>
+        <v>14.80655240823502</v>
       </c>
       <c r="C19">
-        <v>16.06359212091301</v>
+        <v>9.441478066244478</v>
       </c>
       <c r="D19">
-        <v>11.57521602589727</v>
+        <v>12.13757894129065</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.79620889690847</v>
+        <v>27.75289377278785</v>
       </c>
       <c r="G19">
-        <v>24.28143603368173</v>
+        <v>24.63795819822342</v>
       </c>
       <c r="H19">
-        <v>8.032989866380865</v>
+        <v>12.94951225507319</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.186822681586424</v>
+        <v>11.34758345426952</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.5160934964416</v>
+        <v>16.12392002084198</v>
       </c>
       <c r="O19">
-        <v>13.90260912356396</v>
+        <v>19.2070724048323</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.40365823363294</v>
+        <v>15.0167612422497</v>
       </c>
       <c r="C20">
-        <v>16.3432554109716</v>
+        <v>9.594353435090177</v>
       </c>
       <c r="D20">
-        <v>11.75924229681219</v>
+        <v>12.17528886809187</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.11387010943706</v>
+        <v>27.78123355422195</v>
       </c>
       <c r="G20">
-        <v>24.66557020064249</v>
+        <v>24.68334956190218</v>
       </c>
       <c r="H20">
-        <v>8.05553499491309</v>
+        <v>12.93798397430835</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.304867480723102</v>
+        <v>11.36095089586427</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.50473728056236</v>
+        <v>16.11557467752194</v>
       </c>
       <c r="O20">
-        <v>14.02066015962578</v>
+        <v>19.19935051419795</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.87424245748572</v>
+        <v>15.70264058768256</v>
       </c>
       <c r="C21">
-        <v>17.25039145110031</v>
+        <v>10.08950208611189</v>
       </c>
       <c r="D21">
-        <v>12.36460247861062</v>
+        <v>12.30368467835468</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.18439247659121</v>
+        <v>27.88585865362074</v>
       </c>
       <c r="G21">
-        <v>25.95908597053536</v>
+        <v>24.84726116253272</v>
       </c>
       <c r="H21">
-        <v>8.141333854732661</v>
+        <v>12.90227613429274</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.699299692594741</v>
+        <v>11.40841573845305</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.47212534014505</v>
+        <v>16.08959656256445</v>
       </c>
       <c r="O21">
-        <v>14.43312348385606</v>
+        <v>19.17971574222455</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.79457001744555</v>
+        <v>16.13525572024379</v>
       </c>
       <c r="C22">
-        <v>17.81906183840385</v>
+        <v>10.39923087405533</v>
       </c>
       <c r="D22">
-        <v>12.75033942766043</v>
+        <v>12.38875187493855</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.88574659353808</v>
+        <v>27.96117853521716</v>
       </c>
       <c r="G22">
-        <v>26.80581079468621</v>
+        <v>24.96274502611787</v>
       </c>
       <c r="H22">
-        <v>8.205180646319976</v>
+        <v>12.8811989297696</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.95522027308032</v>
+        <v>11.4413085808939</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.45511426681522</v>
+        <v>16.07415146608763</v>
       </c>
       <c r="O22">
-        <v>14.71446458351534</v>
+        <v>19.1715972421945</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.30708255542161</v>
+        <v>15.90581893727163</v>
       </c>
       <c r="C23">
-        <v>17.51776285243217</v>
+        <v>10.23519820027736</v>
       </c>
       <c r="D23">
-        <v>12.54538406660053</v>
+        <v>12.34325154662319</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.51130457328784</v>
+        <v>27.92034857302855</v>
       </c>
       <c r="G23">
-        <v>26.35382030664271</v>
+        <v>24.90035391766335</v>
       </c>
       <c r="H23">
-        <v>8.170375506594009</v>
+        <v>12.89224114008609</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.81881462332349</v>
+        <v>11.42358379449153</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.46378841374069</v>
+        <v>16.08225472314843</v>
       </c>
       <c r="O23">
-        <v>14.56323220665805</v>
+        <v>19.17549827684598</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.37892873296569</v>
+        <v>15.00529305980062</v>
       </c>
       <c r="C24">
-        <v>16.32801988629073</v>
+        <v>9.586027532581623</v>
       </c>
       <c r="D24">
-        <v>11.74918438814534</v>
+        <v>12.17321136007965</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.09641157432952</v>
+        <v>27.77964171245277</v>
       </c>
       <c r="G24">
-        <v>24.64446222188294</v>
+        <v>24.68081365227343</v>
       </c>
       <c r="H24">
-        <v>8.054259846378654</v>
+        <v>12.93860568282205</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.298392556331386</v>
+        <v>11.36020714472052</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.50534047951332</v>
+        <v>16.11602520222833</v>
       </c>
       <c r="O24">
-        <v>14.01411777089078</v>
+        <v>19.19975085828419</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.12177690256861</v>
+        <v>13.96984984250225</v>
       </c>
       <c r="C25">
-        <v>14.9407704949539</v>
+        <v>8.826905189461737</v>
       </c>
       <c r="D25">
-        <v>10.8497077593113</v>
+        <v>11.99545854093989</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.58241620045109</v>
+        <v>27.65809671893399</v>
       </c>
       <c r="G25">
-        <v>22.81214499714192</v>
+        <v>24.48075293353948</v>
       </c>
       <c r="H25">
-        <v>7.960525496441766</v>
+        <v>12.99828762706969</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.730705793024963</v>
+        <v>11.3000716641385</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.56754659181092</v>
+        <v>16.15905410553252</v>
       </c>
       <c r="O25">
-        <v>13.47246001281145</v>
+        <v>19.24607021840565</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_100/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_100/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.15646255937282</v>
+        <v>20.30478297019225</v>
       </c>
       <c r="C2">
-        <v>8.218318456455362</v>
+        <v>13.8302277287539</v>
       </c>
       <c r="D2">
-        <v>11.87018230616401</v>
+        <v>10.15527171349986</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.59493973365432</v>
+        <v>21.48456066868081</v>
       </c>
       <c r="G2">
-        <v>24.36577258056807</v>
+        <v>21.48092830867165</v>
       </c>
       <c r="H2">
-        <v>13.05051426075346</v>
+        <v>7.916426770958469</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.26304089104034</v>
+        <v>8.309551757190379</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.19643918953367</v>
+        <v>11.62718068564754</v>
       </c>
       <c r="O2">
-        <v>19.29739511861112</v>
+        <v>13.11693479795652</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.57613168952097</v>
+        <v>18.97550494924427</v>
       </c>
       <c r="C3">
-        <v>7.775668131902176</v>
+        <v>13.02252728221019</v>
       </c>
       <c r="D3">
-        <v>11.78913205654106</v>
+        <v>9.666647057423365</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.56867883765096</v>
+        <v>20.75502972207416</v>
       </c>
       <c r="G3">
-        <v>24.30826269225195</v>
+        <v>20.59514496921948</v>
       </c>
       <c r="H3">
-        <v>13.09105740239756</v>
+        <v>7.900920113342252</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.24253872704824</v>
+        <v>8.023625026675605</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.22534573149224</v>
+        <v>11.67570415068194</v>
       </c>
       <c r="O3">
-        <v>19.34284723331246</v>
+        <v>12.90261621951384</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.20659582078565</v>
+        <v>18.11070535555786</v>
       </c>
       <c r="C4">
-        <v>7.48933926628902</v>
+        <v>12.49975445282827</v>
       </c>
       <c r="D4">
-        <v>11.74138012548377</v>
+        <v>9.358663593393063</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.56073506032266</v>
+        <v>20.31573472572343</v>
       </c>
       <c r="G4">
-        <v>24.28307036977235</v>
+        <v>20.06139667749347</v>
       </c>
       <c r="H4">
-        <v>13.11848426140804</v>
+        <v>7.898089218904058</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.23223713828428</v>
+        <v>7.848395564656266</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.2448598579482</v>
+        <v>11.70933699993624</v>
       </c>
       <c r="O4">
-        <v>19.37598951534953</v>
+        <v>12.7839306865517</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.05288528430605</v>
+        <v>17.74602528185546</v>
       </c>
       <c r="C5">
-        <v>7.369070245322231</v>
+        <v>12.28004131671906</v>
       </c>
       <c r="D5">
-        <v>11.72244382259173</v>
+        <v>9.231319499969928</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.55955695186242</v>
+        <v>20.13912867886049</v>
       </c>
       <c r="G5">
-        <v>24.27535329046387</v>
+        <v>19.84676865532326</v>
       </c>
       <c r="H5">
-        <v>13.13029694431579</v>
+        <v>7.89855694372976</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.22861709590213</v>
+        <v>7.777167714174145</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.25325659979382</v>
+        <v>11.72398542146688</v>
       </c>
       <c r="O5">
-        <v>19.39080712679101</v>
+        <v>12.7387661675943</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.02717962685198</v>
+        <v>17.68472842128381</v>
       </c>
       <c r="C6">
-        <v>7.348885269111176</v>
+        <v>12.24315721709834</v>
       </c>
       <c r="D6">
-        <v>11.7193315241065</v>
+        <v>9.210068406926951</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.55948571040833</v>
+        <v>20.10995599287359</v>
       </c>
       <c r="G6">
-        <v>24.27422588529091</v>
+        <v>19.81131368514525</v>
       </c>
       <c r="H6">
-        <v>13.13229681575102</v>
+        <v>7.898730730388759</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.22805097207793</v>
+        <v>7.76535417502132</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.25467774289493</v>
+        <v>11.72647408124038</v>
       </c>
       <c r="O6">
-        <v>19.39334667705509</v>
+        <v>12.73145839366645</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.20453518122937</v>
+        <v>18.1058368733332</v>
       </c>
       <c r="C7">
-        <v>7.487731701473102</v>
+        <v>12.49681825853222</v>
       </c>
       <c r="D7">
-        <v>11.74112260480389</v>
+        <v>9.356953392870443</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.56071083374185</v>
+        <v>20.31334287785226</v>
       </c>
       <c r="G7">
-        <v>24.28295597066826</v>
+        <v>20.05849002317623</v>
       </c>
       <c r="H7">
-        <v>13.11864099751185</v>
+        <v>7.898089043416475</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.23218597359862</v>
+        <v>7.847434101572889</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.24497129840977</v>
+        <v>11.70953076552139</v>
       </c>
       <c r="O7">
-        <v>19.37618404527669</v>
+        <v>12.78330869070193</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.95921793963817</v>
+        <v>19.8565112540436</v>
       </c>
       <c r="C8">
-        <v>8.068747100041543</v>
+        <v>13.55733943549011</v>
       </c>
       <c r="D8">
-        <v>11.84182863379262</v>
+        <v>9.988538155831836</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.58418886042841</v>
+        <v>21.23136546712356</v>
       </c>
       <c r="G8">
-        <v>24.3438468305465</v>
+        <v>21.17360259868686</v>
       </c>
       <c r="H8">
-        <v>13.06396719032492</v>
+        <v>7.909655191700561</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.25549899265391</v>
+        <v>8.210951233774411</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.20604015075945</v>
+        <v>11.64310075446616</v>
       </c>
       <c r="O8">
-        <v>19.31197805957921</v>
+        <v>13.04033589313014</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.32687382034459</v>
+        <v>22.90602633718478</v>
       </c>
       <c r="C9">
-        <v>9.090409929907091</v>
+        <v>15.42194922160494</v>
       </c>
       <c r="D9">
-        <v>12.05451308438169</v>
+        <v>11.15791734098417</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.69496757992861</v>
+        <v>23.0902622164082</v>
       </c>
       <c r="G9">
-        <v>24.543164268997</v>
+        <v>23.42719568950286</v>
       </c>
       <c r="H9">
-        <v>12.97689462835963</v>
+        <v>7.988078990928912</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.31921346225724</v>
+        <v>8.922596946232767</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.14367551667228</v>
+        <v>11.54437149028215</v>
       </c>
       <c r="O9">
-        <v>19.22778377404654</v>
+        <v>13.64816316581146</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.25492186642232</v>
+        <v>24.91610476639704</v>
       </c>
       <c r="C10">
-        <v>9.766897001037123</v>
+        <v>16.65911707766022</v>
       </c>
       <c r="D10">
-        <v>12.21895363909725</v>
+        <v>11.96858977093179</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.81547307661316</v>
+        <v>24.47974193562463</v>
       </c>
       <c r="G10">
-        <v>24.73755007306914</v>
+        <v>25.10782276972599</v>
       </c>
       <c r="H10">
-        <v>12.92525872015345</v>
+        <v>8.08319772080432</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.37677051401423</v>
+        <v>9.440233385292258</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.10634071052289</v>
+        <v>11.49263890147264</v>
       </c>
       <c r="O10">
-        <v>19.19157706251802</v>
+        <v>14.1591723713091</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.65909983378046</v>
+        <v>25.78133515910813</v>
       </c>
       <c r="C11">
-        <v>10.05822429083826</v>
+        <v>17.19302133222701</v>
       </c>
       <c r="D11">
-        <v>12.29529529281181</v>
+        <v>12.32594842364574</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.87867298806671</v>
+        <v>25.11491142727716</v>
       </c>
       <c r="G11">
-        <v>24.83614971109859</v>
+        <v>25.87517499220201</v>
       </c>
       <c r="H11">
-        <v>12.90445833300157</v>
+        <v>8.13532696366404</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.40523033810916</v>
+        <v>9.673845181261903</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.09119048817315</v>
+        <v>11.47399139281225</v>
       </c>
       <c r="O11">
-        <v>19.18071350832534</v>
+        <v>14.40570969536074</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.80947440909922</v>
+        <v>26.10197628341766</v>
       </c>
       <c r="C12">
-        <v>10.16616343234153</v>
+        <v>17.39104711325004</v>
       </c>
       <c r="D12">
-        <v>12.32440378643105</v>
+        <v>12.45957617130481</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.90379756597259</v>
+        <v>25.35573689562296</v>
       </c>
       <c r="G12">
-        <v>24.87492370560467</v>
+        <v>26.16599241146293</v>
       </c>
       <c r="H12">
-        <v>12.89696932785143</v>
+        <v>8.156396458713644</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.41632910195417</v>
+        <v>9.761991767071843</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.08571649937759</v>
+        <v>11.46766534829524</v>
       </c>
       <c r="O12">
-        <v>19.17740833499078</v>
+        <v>14.50108827896889</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.77720899125854</v>
+        <v>26.0332308280761</v>
       </c>
       <c r="C13">
-        <v>10.14302293606551</v>
+        <v>17.3485832661692</v>
       </c>
       <c r="D13">
-        <v>12.3181262198357</v>
+        <v>12.4308731750807</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.8983337461301</v>
+        <v>25.30385943489259</v>
       </c>
       <c r="G13">
-        <v>24.86650960126495</v>
+        <v>26.10335134113993</v>
       </c>
       <c r="H13">
-        <v>12.89856496339795</v>
+        <v>8.151798787096414</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.4139245756291</v>
+        <v>9.7430225953694</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.08688373013119</v>
+        <v>11.46899452924979</v>
       </c>
       <c r="O13">
-        <v>19.17808416812284</v>
+        <v>14.48045703234127</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.67152539828467</v>
+        <v>25.80785444823053</v>
       </c>
       <c r="C14">
-        <v>10.06715230975663</v>
+        <v>17.20939620674811</v>
       </c>
       <c r="D14">
-        <v>12.29768619021367</v>
+        <v>12.33697630610729</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.88071619155774</v>
+        <v>25.13471898018429</v>
       </c>
       <c r="G14">
-        <v>24.83931104536854</v>
+        <v>25.89909676800536</v>
       </c>
       <c r="H14">
-        <v>12.90383443359488</v>
+        <v>8.13703341344719</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.40613702836556</v>
+        <v>9.681103653026828</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.09073487089158</v>
+        <v>11.47345601362892</v>
       </c>
       <c r="O14">
-        <v>19.18042537231067</v>
+        <v>14.41351609174699</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.60643982931248</v>
+        <v>25.66889498057319</v>
       </c>
       <c r="C15">
-        <v>10.02036887426397</v>
+        <v>17.12359958246806</v>
       </c>
       <c r="D15">
-        <v>12.28519143054785</v>
+        <v>12.2792395360465</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.87007976225328</v>
+        <v>25.03115093757916</v>
       </c>
       <c r="G15">
-        <v>24.82283737262115</v>
+        <v>25.77401161911316</v>
       </c>
       <c r="H15">
-        <v>12.90711264757639</v>
+        <v>8.128163913806473</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.40140864021926</v>
+        <v>9.643133937739451</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.09312804779448</v>
+        <v>11.47628556999865</v>
       </c>
       <c r="O15">
-        <v>19.18196479377059</v>
+        <v>14.37277576616798</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.2281376369891</v>
+        <v>24.8585762485462</v>
       </c>
       <c r="C16">
-        <v>9.747525995197996</v>
+        <v>16.62364383501205</v>
       </c>
       <c r="D16">
-        <v>12.21399363243988</v>
+        <v>11.94500075115646</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.81151039284267</v>
+        <v>24.43828134489605</v>
       </c>
       <c r="G16">
-        <v>24.73130887885678</v>
+        <v>25.05771600451634</v>
       </c>
       <c r="H16">
-        <v>12.92667226881926</v>
+        <v>8.079974001206489</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.37495593098013</v>
+        <v>9.424924358540075</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.10736765867073</v>
+        <v>11.49395863916779</v>
       </c>
       <c r="O16">
-        <v>19.19240006080913</v>
+        <v>14.14334356578872</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.9913827209869</v>
+        <v>24.348926214419</v>
       </c>
       <c r="C17">
-        <v>9.575926431141212</v>
+        <v>16.30953665109813</v>
       </c>
       <c r="D17">
-        <v>12.17069455966659</v>
+        <v>11.73698745382976</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.77771794262922</v>
+        <v>24.07525499913596</v>
       </c>
       <c r="G17">
-        <v>24.67774690111744</v>
+        <v>24.61888258911296</v>
       </c>
       <c r="H17">
-        <v>12.93936089751325</v>
+        <v>8.052720158833813</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.35930724468928</v>
+        <v>9.290544170006058</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.11657239908932</v>
+        <v>11.50607466679351</v>
       </c>
       <c r="O17">
-        <v>19.20023968450541</v>
+        <v>14.00619793664696</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.85351812847463</v>
+        <v>24.05115717113497</v>
       </c>
       <c r="C18">
-        <v>9.475683148515374</v>
+        <v>16.12615057290389</v>
       </c>
       <c r="D18">
-        <v>12.14593603582444</v>
+        <v>11.61627091352652</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.75907121735878</v>
+        <v>23.86674938077498</v>
       </c>
       <c r="G18">
-        <v>24.64789876021421</v>
+        <v>24.36675074405373</v>
       </c>
       <c r="H18">
-        <v>12.9469121121292</v>
+        <v>8.037875171054427</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.35052121372242</v>
+        <v>9.21307909163518</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.12203934220627</v>
+        <v>11.51350130424719</v>
       </c>
       <c r="O18">
-        <v>19.20527648482175</v>
+        <v>13.92864088563742</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.80655240823502</v>
+        <v>23.94954019137318</v>
       </c>
       <c r="C19">
-        <v>9.441478066244478</v>
+        <v>16.06359212091287</v>
       </c>
       <c r="D19">
-        <v>12.13757894129065</v>
+        <v>11.57521602589724</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.75289377278785</v>
+        <v>23.7962088969085</v>
       </c>
       <c r="G19">
-        <v>24.63795819822342</v>
+        <v>24.28143603368183</v>
       </c>
       <c r="H19">
-        <v>12.94951225507319</v>
+        <v>8.03298986638087</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.34758345426952</v>
+        <v>9.18682268158642</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.12392002084198</v>
+        <v>11.5160934964416</v>
       </c>
       <c r="O19">
-        <v>19.2070724048323</v>
+        <v>13.90260912356404</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.0167612422497</v>
+        <v>24.40365823363293</v>
       </c>
       <c r="C20">
-        <v>9.594353435090177</v>
+        <v>16.34325541097155</v>
       </c>
       <c r="D20">
-        <v>12.17528886809187</v>
+        <v>11.75924229681216</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.78123355422195</v>
+        <v>24.11387010943702</v>
       </c>
       <c r="G20">
-        <v>24.68334956190218</v>
+        <v>24.66557020064244</v>
       </c>
       <c r="H20">
-        <v>12.93798397430835</v>
+        <v>8.055534994913085</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.36095089586427</v>
+        <v>9.3048674807231</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.11557467752194</v>
+        <v>11.50473728056236</v>
       </c>
       <c r="O20">
-        <v>19.19935051419795</v>
+        <v>14.02066015962576</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.70264058768256</v>
+        <v>25.87424245748565</v>
       </c>
       <c r="C21">
-        <v>10.08950208611189</v>
+        <v>17.25039145110018</v>
       </c>
       <c r="D21">
-        <v>12.30368467835468</v>
+        <v>12.3646024786106</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.88585865362074</v>
+        <v>25.18439247659127</v>
       </c>
       <c r="G21">
-        <v>24.84726116253272</v>
+        <v>25.95908597053542</v>
       </c>
       <c r="H21">
-        <v>12.90227613429274</v>
+        <v>8.141333854732711</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.40841573845305</v>
+        <v>9.699299692594769</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.08959656256445</v>
+        <v>11.47212534014504</v>
       </c>
       <c r="O21">
-        <v>19.17971574222455</v>
+        <v>14.43312348385614</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.13525572024379</v>
+        <v>26.79457001744552</v>
       </c>
       <c r="C22">
-        <v>10.39923087405533</v>
+        <v>17.81906183840387</v>
       </c>
       <c r="D22">
-        <v>12.38875187493855</v>
+        <v>12.7503394276604</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.96117853521716</v>
+        <v>25.88574659353808</v>
       </c>
       <c r="G22">
-        <v>24.96274502611787</v>
+        <v>26.80581079468626</v>
       </c>
       <c r="H22">
-        <v>12.8811989297696</v>
+        <v>8.205180646319949</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.4413085808939</v>
+        <v>9.95522027308032</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.07415146608763</v>
+        <v>11.45511426681522</v>
       </c>
       <c r="O22">
-        <v>19.1715972421945</v>
+        <v>14.71446458351535</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.90581893727163</v>
+        <v>26.30708255542163</v>
       </c>
       <c r="C23">
-        <v>10.23519820027736</v>
+        <v>17.51776285243215</v>
       </c>
       <c r="D23">
-        <v>12.34325154662319</v>
+        <v>12.54538406660053</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.92034857302855</v>
+        <v>25.51130457328785</v>
       </c>
       <c r="G23">
-        <v>24.90035391766335</v>
+        <v>26.35382030664272</v>
       </c>
       <c r="H23">
-        <v>12.89224114008609</v>
+        <v>8.170375506594015</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.42358379449153</v>
+        <v>9.818814623323501</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.08225472314843</v>
+        <v>11.46378841374071</v>
       </c>
       <c r="O23">
-        <v>19.17549827684598</v>
+        <v>14.56323220665808</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.00529305980062</v>
+        <v>24.37892873296568</v>
       </c>
       <c r="C24">
-        <v>9.586027532581623</v>
+        <v>16.32801988629075</v>
       </c>
       <c r="D24">
-        <v>12.17321136007965</v>
+        <v>11.74918438814535</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.77964171245277</v>
+        <v>24.09641157432956</v>
       </c>
       <c r="G24">
-        <v>24.68081365227343</v>
+        <v>24.644462221883</v>
       </c>
       <c r="H24">
-        <v>12.93860568282205</v>
+        <v>8.054259846378661</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.36020714472052</v>
+        <v>9.298392556331397</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.11602520222833</v>
+        <v>11.50534047951331</v>
       </c>
       <c r="O24">
-        <v>19.19975085828419</v>
+        <v>14.01411777089082</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.96984984250225</v>
+        <v>22.12177690256865</v>
       </c>
       <c r="C25">
-        <v>8.826905189461737</v>
+        <v>14.94077049495388</v>
       </c>
       <c r="D25">
-        <v>11.99545854093989</v>
+        <v>10.84970775931126</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.65809671893399</v>
+        <v>22.58241620045105</v>
       </c>
       <c r="G25">
-        <v>24.48075293353948</v>
+        <v>22.81214499714197</v>
       </c>
       <c r="H25">
-        <v>12.99828762706969</v>
+        <v>7.960525496441766</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.3000716641385</v>
+        <v>8.730705793024967</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.15905410553252</v>
+        <v>11.56754659181092</v>
       </c>
       <c r="O25">
-        <v>19.24607021840565</v>
+        <v>13.47246001281142</v>
       </c>
     </row>
   </sheetData>
